--- a/Gestion de Projet/Burndown Chart.xlsx
+++ b/Gestion de Projet/Burndown Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Exia\Projet Entreprenariat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Exia\Projet Entreprenariat\Git Projet EatInTime\EatInTime\Gestion de Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,54 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Tâches/Livrables</t>
   </si>
   <si>
     <t>Deadline</t>
-  </si>
-  <si>
-    <t>Charte de projet</t>
-  </si>
-  <si>
-    <t>Etude économique</t>
-  </si>
-  <si>
-    <t>Indicateurs</t>
-  </si>
-  <si>
-    <t>User Profiles</t>
-  </si>
-  <si>
-    <t>Business Model Canvas</t>
-  </si>
-  <si>
-    <t>Etude de marché</t>
-  </si>
-  <si>
-    <t>Plan de management</t>
-  </si>
-  <si>
-    <t>Livraison Prototype</t>
-  </si>
-  <si>
-    <t>UML - Activités</t>
-  </si>
-  <si>
-    <t>UML - Use Case</t>
-  </si>
-  <si>
-    <t>Grand Oral 1</t>
-  </si>
-  <si>
-    <t>Grand Oral 2</t>
-  </si>
-  <si>
-    <t>Soutenance Finale</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>ID</t>
@@ -166,9 +124,6 @@
   </si>
   <si>
     <t>Tâches/livrables</t>
-  </si>
-  <si>
-    <t>CHARTE DE PROJET</t>
   </si>
   <si>
     <t>Etat de l'art</t>
@@ -466,11 +421,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -478,24 +430,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,48 +483,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Accent4" xfId="1" builtinId="44"/>
     <cellStyle name="60 % - Accent5" xfId="2" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -668,95 +607,133 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$G$19:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+            <c:strRef>
+              <c:f>Feuil1!$G$7:$H$44</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43044</c:v>
+                  <c:v>05/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43045</c:v>
+                  <c:v>06/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43046</c:v>
+                  <c:v>07/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43047</c:v>
+                  <c:v>08/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43048</c:v>
+                  <c:v>09/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43049</c:v>
+                  <c:v>10/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43050</c:v>
+                  <c:v>11/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43051</c:v>
+                  <c:v>12/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43052</c:v>
+                  <c:v>13/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43053</c:v>
+                  <c:v>14/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43054</c:v>
+                  <c:v>15/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43055</c:v>
+                  <c:v>16/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43056</c:v>
+                  <c:v>17/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43057</c:v>
+                  <c:v>18/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43058</c:v>
+                  <c:v>19/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43059</c:v>
+                  <c:v>20/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43060</c:v>
+                  <c:v>21/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43061</c:v>
+                  <c:v>22/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43062</c:v>
+                  <c:v>23/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43063</c:v>
+                  <c:v>24/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43064</c:v>
+                  <c:v>25/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43065</c:v>
+                  <c:v>26/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43066</c:v>
+                  <c:v>27/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43067</c:v>
+                  <c:v>28/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43068</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>29/11/2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30/11/2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>01/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>02/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>03/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>04/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>05/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>06/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>07/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>08/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>09/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12/12/2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$K$19:$K$43</c:f>
+              <c:f>Feuil1!$K$7:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -824,12 +801,51 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -861,95 +877,133 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$G$19:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+            <c:strRef>
+              <c:f>Feuil1!$G$7:$H$44</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43044</c:v>
+                  <c:v>05/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43045</c:v>
+                  <c:v>06/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43046</c:v>
+                  <c:v>07/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43047</c:v>
+                  <c:v>08/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43048</c:v>
+                  <c:v>09/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43049</c:v>
+                  <c:v>10/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43050</c:v>
+                  <c:v>11/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43051</c:v>
+                  <c:v>12/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43052</c:v>
+                  <c:v>13/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43053</c:v>
+                  <c:v>14/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43054</c:v>
+                  <c:v>15/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43055</c:v>
+                  <c:v>16/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43056</c:v>
+                  <c:v>17/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43057</c:v>
+                  <c:v>18/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43058</c:v>
+                  <c:v>19/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43059</c:v>
+                  <c:v>20/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43060</c:v>
+                  <c:v>21/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43061</c:v>
+                  <c:v>22/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43062</c:v>
+                  <c:v>23/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43063</c:v>
+                  <c:v>24/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43064</c:v>
+                  <c:v>25/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43065</c:v>
+                  <c:v>26/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43066</c:v>
+                  <c:v>27/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43067</c:v>
+                  <c:v>28/11/2017</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43068</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>29/11/2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30/11/2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>01/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>02/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>03/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>04/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>05/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>06/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>07/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>08/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>09/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11/12/2017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12/12/2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$L$19:$L$43</c:f>
+              <c:f>Feuil1!$L$7:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -1023,6 +1077,45 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
@@ -1065,101 +1158,139 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$G$19:$G$43</c15:sqref>
+                          <c15:sqref>Feuil1!$G$7:$H$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="25"/>
+                    <c:strCache>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
-                        <c:v>43044</c:v>
+                        <c:v>05/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>43045</c:v>
+                        <c:v>06/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>43046</c:v>
+                        <c:v>07/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>43047</c:v>
+                        <c:v>08/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>43048</c:v>
+                        <c:v>09/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>43049</c:v>
+                        <c:v>10/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>43050</c:v>
+                        <c:v>11/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>43051</c:v>
+                        <c:v>12/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>43052</c:v>
+                        <c:v>13/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>43053</c:v>
+                        <c:v>14/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>43054</c:v>
+                        <c:v>15/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>43055</c:v>
+                        <c:v>16/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>43056</c:v>
+                        <c:v>17/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>43057</c:v>
+                        <c:v>18/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>43058</c:v>
+                        <c:v>19/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>43059</c:v>
+                        <c:v>20/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>43060</c:v>
+                        <c:v>21/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>43061</c:v>
+                        <c:v>22/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>43062</c:v>
+                        <c:v>23/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>43063</c:v>
+                        <c:v>24/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>43064</c:v>
+                        <c:v>25/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>43065</c:v>
+                        <c:v>26/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>43066</c:v>
+                        <c:v>27/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>43067</c:v>
+                        <c:v>28/11/2017</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>43068</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                        <c:v>29/11/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>30/11/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>01/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>02/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>03/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>04/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>05/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>06/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>07/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>08/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>09/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>10/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>11/12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>12/12/2017</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$H$19:$H$43</c15:sqref>
+                          <c15:sqref>Feuil1!$H$7:$H$31</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1578,10 +1709,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$G$56:$G$65</c:f>
+              <c:f>Feuil1!$G$51:$G$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>43024</c:v>
                 </c:pt>
@@ -1611,16 +1742,166 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43038</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43041</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43043</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43044</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43046</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43049</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43050</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43051</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43052</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43056</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43057</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43058</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43059</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43060</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43061</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43062</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43064</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43065</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43066</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43071</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43072</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43082</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$K$56:$K$65</c:f>
+              <c:f>Feuil1!$K$51:$K$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -1650,6 +1931,156 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,10 +2112,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$G$56:$G$65</c:f>
+              <c:f>Feuil1!$G$51:$G$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>43024</c:v>
                 </c:pt>
@@ -1714,16 +2145,166 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43038</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43041</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43043</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43044</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43046</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43049</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43050</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43051</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43052</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43056</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43057</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43058</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43059</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43060</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43061</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43062</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43064</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43065</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43066</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43071</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43072</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43082</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$L$56:$L$65</c:f>
+              <c:f>Feuil1!$L$51:$L$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -1752,6 +2333,156 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -1798,13 +2529,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$G$56:$G$65</c15:sqref>
+                          <c15:sqref>Feuil1!$G$51:$G$110</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="60"/>
                       <c:pt idx="0">
                         <c:v>43024</c:v>
                       </c:pt>
@@ -1834,6 +2565,156 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>43033</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43034</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43035</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43036</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43037</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43038</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43039</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43040</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43041</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43042</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43043</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43044</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43045</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43046</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43047</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43048</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43049</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43050</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43051</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43052</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43053</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43054</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43055</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43056</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43057</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43058</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43059</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43060</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43061</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43062</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43063</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43064</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43065</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43066</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43067</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43068</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43069</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43070</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43071</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43072</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43073</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43074</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43075</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43076</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43077</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43078</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43079</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43080</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43081</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43082</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43083</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1843,7 +2724,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$H$56:$H$65</c15:sqref>
+                          <c15:sqref>Feuil1!$H$51:$H$60</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2258,10 +3139,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$G$111:$G$137</c:f>
+              <c:f>Feuil1!$G$129:$G$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43048</c:v>
                 </c:pt>
@@ -2342,16 +3223,40 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$K$111:$K$137</c:f>
+              <c:f>Feuil1!$K$129:$K$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -2401,16 +3306,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
@@ -2431,6 +3336,30 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2463,10 +3392,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$G$111:$G$137</c:f>
+              <c:f>Feuil1!$G$129:$G$163</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43048</c:v>
                 </c:pt>
@@ -2547,16 +3476,40 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$L$111:$L$137</c:f>
+              <c:f>Feuil1!$L$129:$L$163</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -2636,6 +3589,30 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2682,13 +3659,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$G$111:$G$137</c15:sqref>
+                          <c15:sqref>Feuil1!$G$129:$G$163</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="35"/>
                       <c:pt idx="0">
                         <c:v>43048</c:v>
                       </c:pt>
@@ -2769,6 +3746,30 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>43074</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43075</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43076</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43077</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43078</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43079</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43080</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43081</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43082</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2778,7 +3779,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$H$111:$H$137</c15:sqref>
+                          <c15:sqref>Feuil1!$H$129:$H$155</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4772,13 +5773,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>258534</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>145595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4807,15 +5808,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>324969</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:colOff>529075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>329045</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>517070</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>77933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4842,16 +5843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>367391</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>23131</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>77560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4880,23 +5881,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:C14" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A2:C14">
-    <sortCondition ref="C1:C14"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="#" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tâches/Livrables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Deadline" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A17:D39" totalsRowShown="0">
-  <autoFilter ref="A17:D39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="B11:E33" totalsRowShown="0">
+  <autoFilter ref="B11:E33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Tâches/Livrables"/>
@@ -4907,11 +5893,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4D6DCEA5-A708-49F3-A70C-976ED0DA6E79}" name="Tableau3" displayName="Tableau3" ref="A55:D76" totalsRowShown="0">
-  <autoFilter ref="A55:D76" xr:uid="{69A2EC25-53B9-4631-B430-7BABE93DAA6F}"/>
-  <sortState ref="A56:D76">
-    <sortCondition ref="D55:D76"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4D6DCEA5-A708-49F3-A70C-976ED0DA6E79}" name="Tableau3" displayName="Tableau3" ref="B70:E91" totalsRowShown="0">
+  <autoFilter ref="B70:E91" xr:uid="{69A2EC25-53B9-4631-B430-7BABE93DAA6F}"/>
+  <sortState ref="B71:E91">
+    <sortCondition ref="E70:E91"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{41ADDD9B-24C3-4654-AEFD-BA4350931851}" name="ID"/>
@@ -4923,11 +5909,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA570895-45E1-441C-918E-A3F4C811A060}" name="Tableau4" displayName="Tableau4" ref="A109:D117" totalsRowShown="0">
-  <autoFilter ref="A109:D117" xr:uid="{3BDED1AC-B7C3-4B82-BDB6-5E3EB4EACBE0}"/>
-  <sortState ref="A110:D118">
-    <sortCondition ref="D109:D118"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA570895-45E1-441C-918E-A3F4C811A060}" name="Tableau4" displayName="Tableau4" ref="B131:E139" totalsRowShown="0">
+  <autoFilter ref="B131:E139" xr:uid="{3BDED1AC-B7C3-4B82-BDB6-5E3EB4EACBE0}"/>
+  <sortState ref="B132:E140">
+    <sortCondition ref="E131:E140"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3CB3AAB0-068C-466B-ACD6-44BA610B85A6}" name="ID"/>
@@ -5236,3000 +6222,3481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z139" sqref="Z139"/>
+    <sheetView tabSelected="1" topLeftCell="F72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ144" sqref="AJ144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>43020</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43020</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="G4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="27">
+        <v>43044</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="11">
+        <v>43045</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>43033</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43033</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>43035</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>43079</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>43079</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f>K7-I8</f>
+        <v>16</v>
+      </c>
+      <c r="L8" s="5">
+        <f>L7-J8</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>43091</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="G9" s="11">
+        <v>43046</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:K30" si="0">K8-I9</f>
+        <v>16</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ref="L9:L31" si="1">L8-J9</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>43091</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>43091</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>43115</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>43118</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4">
-        <v>43122</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="G16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43045</v>
-      </c>
-      <c r="G19" s="8">
-        <v>43044</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>19</v>
-      </c>
-      <c r="L19" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43045</v>
-      </c>
-      <c r="G20" s="7">
-        <v>43045</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6">
-        <v>3</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <f>K19-I20</f>
-        <v>16</v>
-      </c>
-      <c r="L20" s="6">
-        <f>L19-J20</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43045</v>
-      </c>
-      <c r="G21" s="7">
-        <v>43046</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" ref="K21:K42" si="0">K20-I21</f>
-        <v>16</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" ref="L21:L43" si="1">L20-J21</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="G22" s="7">
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="11">
         <v>43047</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="H10" s="11"/>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="11">
         <v>43048</v>
       </c>
-      <c r="G23" s="7">
-        <v>43048</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6">
+      <c r="H11" s="11"/>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="11">
         <v>43049</v>
       </c>
-      <c r="G24" s="7">
-        <v>43049</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6">
+      <c r="H12" s="11"/>
+      <c r="I12" s="5">
         <v>2</v>
       </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L12" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
-        <v>43049</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43045</v>
+      </c>
+      <c r="G13" s="11">
         <v>43050</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="H13" s="11"/>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L13" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43045</v>
+      </c>
+      <c r="G14" s="11">
         <v>43051</v>
       </c>
-      <c r="G26" s="7">
-        <v>43051</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6">
+      <c r="H14" s="11"/>
+      <c r="I14" s="5">
         <v>1</v>
       </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E15" s="1">
+        <v>43045</v>
+      </c>
+      <c r="G15" s="11">
         <v>43052</v>
       </c>
-      <c r="G27" s="7">
-        <v>43052</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6">
+      <c r="H15" s="11"/>
+      <c r="I15" s="5">
         <v>2</v>
       </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L15" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="11">
         <v>43053</v>
       </c>
-      <c r="G28" s="7">
-        <v>43053</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6">
+      <c r="H16" s="11"/>
+      <c r="I16" s="5">
         <v>1</v>
       </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43052</v>
-      </c>
-      <c r="G29" s="7">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43048</v>
+      </c>
+      <c r="G17" s="11">
         <v>43054</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="H17" s="11"/>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L17" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43049</v>
+      </c>
+      <c r="G18" s="11">
         <v>43055</v>
       </c>
-      <c r="G30" s="7">
-        <v>43055</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6">
+      <c r="H18" s="11"/>
+      <c r="I18" s="5">
         <v>1</v>
       </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E19" s="1">
+        <v>43049</v>
+      </c>
+      <c r="G19" s="11">
         <v>43056</v>
       </c>
-      <c r="G31" s="7">
-        <v>43056</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6">
+      <c r="H19" s="11"/>
+      <c r="I19" s="5">
         <v>1</v>
       </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L19" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="G32" s="7">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43051</v>
+      </c>
+      <c r="G20" s="11">
         <v>43057</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="H20" s="11"/>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43060</v>
-      </c>
-      <c r="G33" s="7">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43052</v>
+      </c>
+      <c r="G21" s="11">
         <v>43058</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="H21" s="11"/>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L21" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D34" s="2">
-        <v>43061</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="E22" s="1">
+        <v>43053</v>
+      </c>
+      <c r="G22" s="11">
         <v>43059</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="H22" s="11"/>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L22" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="D35" s="2">
-        <v>43062</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="E23" s="1">
+        <v>43052</v>
+      </c>
+      <c r="G23" s="11">
         <v>43060</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6">
+      <c r="H23" s="11"/>
+      <c r="I23" s="5">
         <v>1</v>
       </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L23" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="G36" s="7">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43055</v>
+      </c>
+      <c r="G24" s="11">
         <v>43061</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6">
+      <c r="H24" s="11"/>
+      <c r="I24" s="5">
         <v>1</v>
       </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L24" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E25" s="1">
+        <v>43056</v>
+      </c>
+      <c r="G25" s="11">
         <v>43062</v>
       </c>
-      <c r="G37" s="7">
-        <v>43062</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6">
+      <c r="H25" s="11"/>
+      <c r="I25" s="5">
         <v>2</v>
       </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>43066</v>
-      </c>
-      <c r="G38" s="7">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="11">
         <v>43063</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
+      <c r="H26" s="11"/>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L26" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2">
-        <v>43067</v>
-      </c>
-      <c r="G39" s="7">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43060</v>
+      </c>
+      <c r="G27" s="11">
         <v>43064</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
+      <c r="H27" s="11"/>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L27" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="7">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43061</v>
+      </c>
+      <c r="G28" s="11">
         <v>43065</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
+      <c r="H28" s="11"/>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L28" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="7">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43062</v>
+      </c>
+      <c r="G29" s="11">
         <v>43066</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6">
-        <v>1</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="H29" s="11"/>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L41" s="6">
+        <v>3</v>
+      </c>
+      <c r="L29" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="7">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="G30" s="11">
         <v>43067</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
+      <c r="H30" s="11"/>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L42" s="6">
+        <v>3</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="7">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43062</v>
+      </c>
+      <c r="G31" s="11">
         <v>43068</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
+      <c r="H31" s="11"/>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="G54" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="22"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D56" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G56" s="7">
-        <v>43024</v>
-      </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="24">
-        <v>21</v>
-      </c>
-      <c r="L56" s="24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>12</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57">
+      <c r="E32" s="1">
+        <v>43081</v>
+      </c>
+      <c r="G32" s="11">
+        <v>43069</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" ref="L32:L39" si="2">L31-J32</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="D57" s="2">
-        <v>43027</v>
-      </c>
-      <c r="G57" s="7">
-        <v>43025</v>
-      </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="6">
-        <v>1</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0</v>
-      </c>
-      <c r="K57" s="24">
-        <f>K56-I57</f>
-        <v>20</v>
-      </c>
-      <c r="L57" s="24">
-        <f>L56-J57</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2">
-        <v>43028</v>
-      </c>
-      <c r="G58" s="7">
-        <v>43026</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>1</v>
-      </c>
-      <c r="K58" s="24">
-        <f t="shared" ref="K58:K104" si="2">K57-I58</f>
-        <v>20</v>
-      </c>
-      <c r="L58" s="24">
-        <f t="shared" ref="L58:L104" si="3">L57-J58</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>14</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2">
-        <v>43028</v>
-      </c>
-      <c r="G59" s="7">
-        <v>43027</v>
-      </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="6">
-        <v>1</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="24">
+      <c r="E33" s="1">
+        <v>43081</v>
+      </c>
+      <c r="G33" s="11">
+        <v>43070</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="L59" s="24">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="11">
+        <v>43071</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="11">
+        <v>43072</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="11">
+        <v>43073</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="11">
+        <v>43074</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="11">
+        <v>43075</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="11">
+        <v>43076</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G40" s="11">
+        <v>43077</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" ref="L40" si="3">L39-J40</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="11">
+        <v>43078</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" ref="L41:L44" si="4">L40-J41</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G42" s="11">
+        <v>43079</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G43" s="11">
+        <v>43080</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="11">
+        <v>43081</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51" s="11">
+        <v>43024</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="9">
+        <v>21</v>
+      </c>
+      <c r="L51" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G52" s="11">
+        <v>43025</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <f>K51-I52</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="L52" s="9">
+        <f>L51-J52</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G53" s="11">
+        <v>43026</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9">
+        <f t="shared" ref="K53:K99" si="5">K52-I53</f>
+        <v>20</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" ref="L53:L99" si="6">L52-J53</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G54" s="11">
+        <v>43027</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L54" s="9">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G55" s="11">
+        <v>43028</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="5">
+        <v>2</v>
+      </c>
+      <c r="J55" s="5">
+        <v>2</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G56" s="11">
+        <v>43029</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="L56" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G57" s="11">
+        <v>43030</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="L57" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G58" s="11">
+        <v>43031</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="L58" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G59" s="11">
+        <v>43032</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5">
+        <v>5</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G60" s="11">
+        <v>43033</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L60" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G61" s="11">
+        <v>43034</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L61" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G62" s="11">
+        <v>43035</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L62" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G63" s="11">
+        <v>43036</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L63" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G64" s="11">
+        <v>43037</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L64" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G65" s="11">
+        <v>43038</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L65" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G66" s="11">
+        <v>43039</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L66" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G67" s="11">
+        <v>43040</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L67" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G68" s="11">
+        <v>43041</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L68" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G69" s="11">
+        <v>43042</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L69" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="11">
+        <v>43043</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43025</v>
+      </c>
+      <c r="G71" s="11">
+        <v>43044</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="5">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L71" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43027</v>
+      </c>
+      <c r="G72" s="11">
+        <v>43045</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43028</v>
+      </c>
+      <c r="G73" s="11">
+        <v>43046</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43028</v>
+      </c>
+      <c r="G74" s="11">
+        <v>43047</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>43031</v>
+      </c>
+      <c r="G75" s="11">
+        <v>43048</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L75" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43032</v>
+      </c>
+      <c r="G76" s="11">
+        <v>43049</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="5">
+        <v>0</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L76" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>43032</v>
+      </c>
+      <c r="G77" s="11">
+        <v>43050</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L77" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1">
+        <v>43032</v>
+      </c>
+      <c r="G78" s="11">
+        <v>43051</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L78" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>43032</v>
+      </c>
+      <c r="G79" s="11">
+        <v>43052</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="5">
+        <v>0</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="K79" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L79" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43032</v>
+      </c>
+      <c r="G80" s="11">
+        <v>43053</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="5">
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L80" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43033</v>
+      </c>
+      <c r="G81" s="11">
+        <v>43054</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L81" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43033</v>
+      </c>
+      <c r="G82" s="11">
+        <v>43055</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L82" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43033</v>
+      </c>
+      <c r="G83" s="11">
+        <v>43056</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5">
+        <v>0</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L83" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43033</v>
+      </c>
+      <c r="G84" s="11">
+        <v>43057</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="5">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L84" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1">
+        <v>43033</v>
+      </c>
+      <c r="G85" s="11">
+        <v>43058</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="5">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L85" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43033</v>
+      </c>
+      <c r="G86" s="11">
+        <v>43059</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L86" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>21</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43033</v>
+      </c>
+      <c r="G87" s="11">
+        <v>43060</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="5">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L87" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43045</v>
+      </c>
+      <c r="G88" s="11">
+        <v>43061</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L88" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43079</v>
+      </c>
+      <c r="G89" s="11">
+        <v>43062</v>
+      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L89" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43080</v>
+      </c>
+      <c r="G90" s="11">
+        <v>43063</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L90" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43083</v>
+      </c>
+      <c r="G91" s="11">
+        <v>43064</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="5">
+        <v>0</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L91" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G92" s="11">
+        <v>43065</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="5">
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L92" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G93" s="11">
+        <v>43066</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="5">
+        <v>0</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L93" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G94" s="11">
+        <v>43067</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="5">
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L94" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G95" s="11">
+        <v>43068</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L95" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G96" s="11">
+        <v>43069</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L96" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G97" s="11">
+        <v>43070</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L97" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G98" s="11">
+        <v>43071</v>
+      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="5">
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L98" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G99" s="11">
+        <v>43072</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L99" s="9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G100" s="11">
+        <v>43073</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="5">
+        <v>0</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="9">
+        <f t="shared" ref="K100:K104" si="7">K99-I100</f>
+        <v>3</v>
+      </c>
+      <c r="L100" s="9">
+        <f t="shared" ref="L100:L104" si="8">L99-J100</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G101" s="11">
+        <v>43074</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5">
+        <v>0</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+      <c r="K101" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L101" s="9">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G102" s="11">
+        <v>43075</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="5">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L102" s="9">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G103" s="11">
+        <v>43076</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="5">
+        <v>0</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L103" s="9">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G104" s="11">
+        <v>43077</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="5">
+        <v>0</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="K104" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L104" s="9">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G105" s="11">
+        <v>43078</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="5">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9">
+        <f t="shared" ref="K105:K110" si="9">K104-I105</f>
+        <v>3</v>
+      </c>
+      <c r="L105" s="9">
+        <f t="shared" ref="L105:L110" si="10">L104-J105</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G106" s="11">
+        <v>43079</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="5">
+        <v>1</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+      <c r="K106" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L106" s="9">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G107" s="11">
+        <v>43080</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="5">
+        <v>1</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L107" s="9">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G108" s="11">
+        <v>43081</v>
+      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="5">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0</v>
+      </c>
+      <c r="K108" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L108" s="9">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G109" s="11">
+        <v>43082</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L109" s="9">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G110" s="11">
+        <v>43083</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="5">
+        <v>1</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+      <c r="K110" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="9">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G127" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="16"/>
+      <c r="I127" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G129" s="13">
+        <v>43048</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5">
+        <v>8</v>
+      </c>
+      <c r="L129" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C60">
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="G130" s="11">
+        <v>43049</v>
+      </c>
+      <c r="H130" s="12"/>
+      <c r="I130" s="5">
         <v>1</v>
       </c>
-      <c r="D60" s="2">
-        <v>43031</v>
-      </c>
-      <c r="G60" s="7">
-        <v>43028</v>
-      </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="6">
+      <c r="J130" s="5">
+        <v>0</v>
+      </c>
+      <c r="K130" s="5">
+        <f>K129-I130</f>
+        <v>7</v>
+      </c>
+      <c r="L130" s="5">
+        <f>L129-J130</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>2</v>
       </c>
-      <c r="J60" s="6">
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="11">
+        <v>43050</v>
+      </c>
+      <c r="H131" s="12"/>
+      <c r="I131" s="5">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0</v>
+      </c>
+      <c r="K131" s="5">
+        <f>K130-I131</f>
+        <v>7</v>
+      </c>
+      <c r="L131" s="5">
+        <f>L130-J131</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>43049</v>
+      </c>
+      <c r="G132" s="11">
+        <v>43051</v>
+      </c>
+      <c r="H132" s="12"/>
+      <c r="I132" s="5">
+        <v>0</v>
+      </c>
+      <c r="J132" s="5">
+        <v>0</v>
+      </c>
+      <c r="K132" s="5">
+        <f t="shared" ref="K132:K155" si="11">K131-I132</f>
+        <v>7</v>
+      </c>
+      <c r="L132" s="5">
+        <f t="shared" ref="L132:L158" si="12">L131-J132</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133">
         <v>2</v>
       </c>
-      <c r="K60" s="24">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="L60" s="24">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C133" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>43052</v>
+      </c>
+      <c r="G133" s="11">
+        <v>43052</v>
+      </c>
+      <c r="H133" s="12"/>
+      <c r="I133" s="5">
+        <v>1</v>
+      </c>
+      <c r="J133" s="5">
+        <v>0</v>
+      </c>
+      <c r="K133" s="5">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L133" s="5">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
         <v>55</v>
       </c>
-      <c r="C61">
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1">
+        <v>43055</v>
+      </c>
+      <c r="G134" s="11">
+        <v>43053</v>
+      </c>
+      <c r="H134" s="12"/>
+      <c r="I134" s="5">
+        <v>0</v>
+      </c>
+      <c r="J134" s="5">
+        <v>0</v>
+      </c>
+      <c r="K134" s="5">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L134" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>43057</v>
+      </c>
+      <c r="G135" s="11">
+        <v>43054</v>
+      </c>
+      <c r="H135" s="12"/>
+      <c r="I135" s="5">
+        <v>0</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0</v>
+      </c>
+      <c r="K135" s="5">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L135" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136" s="1">
+        <v>43059</v>
+      </c>
+      <c r="G136" s="11">
+        <v>43055</v>
+      </c>
+      <c r="H136" s="12"/>
+      <c r="I136" s="5">
         <v>1</v>
       </c>
-      <c r="D61" s="2">
-        <v>43032</v>
-      </c>
-      <c r="G61" s="7">
-        <v>43029</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="6">
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
+      <c r="J136" s="5">
+        <v>0</v>
+      </c>
+      <c r="K136" s="5">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="L136" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137" s="1">
+        <v>43063</v>
+      </c>
+      <c r="G137" s="11">
+        <v>43056</v>
+      </c>
+      <c r="H137" s="12"/>
+      <c r="I137" s="5">
+        <v>0</v>
+      </c>
+      <c r="J137" s="5">
+        <v>0</v>
+      </c>
+      <c r="K137" s="5">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="L137" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1">
+        <v>43064</v>
+      </c>
+      <c r="G138" s="11">
+        <v>43057</v>
+      </c>
+      <c r="H138" s="12"/>
+      <c r="I138" s="5">
         <v>1</v>
       </c>
-      <c r="K61" s="24">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="L61" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>15</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="J138" s="5">
+        <v>0</v>
+      </c>
+      <c r="K138" s="5">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="L138" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1">
+        <v>43082</v>
+      </c>
+      <c r="G139" s="11">
+        <v>43058</v>
+      </c>
+      <c r="H139" s="12"/>
+      <c r="I139" s="5">
+        <v>0</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0</v>
+      </c>
+      <c r="K139" s="5">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="L139" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G140" s="11">
+        <v>43059</v>
+      </c>
+      <c r="H140" s="12"/>
+      <c r="I140" s="5">
+        <v>1</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0</v>
+      </c>
+      <c r="K140" s="5">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L140" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G141" s="11">
+        <v>43060</v>
+      </c>
+      <c r="H141" s="12"/>
+      <c r="I141" s="5">
+        <v>0</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L141" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G142" s="11">
+        <v>43061</v>
+      </c>
+      <c r="H142" s="12"/>
+      <c r="I142" s="5">
+        <v>0</v>
+      </c>
+      <c r="J142" s="5">
+        <v>0</v>
+      </c>
+      <c r="K142" s="5">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L142" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G143" s="11">
+        <v>43062</v>
+      </c>
+      <c r="H143" s="12"/>
+      <c r="I143" s="5">
+        <v>0</v>
+      </c>
+      <c r="J143" s="5">
+        <v>0</v>
+      </c>
+      <c r="K143" s="5">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L143" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G144" s="11">
+        <v>43063</v>
+      </c>
+      <c r="H144" s="12"/>
+      <c r="I144" s="5">
+        <v>1</v>
+      </c>
+      <c r="J144" s="5">
+        <v>0</v>
+      </c>
+      <c r="K144" s="5">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="D62" s="2">
-        <v>43032</v>
-      </c>
-      <c r="G62" s="7">
-        <v>43030</v>
-      </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="6">
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0</v>
-      </c>
-      <c r="K62" s="24">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="L62" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>16</v>
-      </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2">
-        <v>43032</v>
-      </c>
-      <c r="G63" s="7">
-        <v>43031</v>
-      </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="6">
+      <c r="L144" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G145" s="11">
+        <v>43064</v>
+      </c>
+      <c r="H145" s="12"/>
+      <c r="I145" s="5">
         <v>1</v>
       </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="24">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="L63" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>17</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2">
-        <v>43032</v>
-      </c>
-      <c r="G64" s="7">
-        <v>43032</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="6">
-        <v>5</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0</v>
-      </c>
-      <c r="K64" s="24">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="L64" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>19</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" s="2">
-        <v>43032</v>
-      </c>
-      <c r="G65" s="7">
-        <v>43033</v>
-      </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="6">
-        <v>7</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0</v>
-      </c>
-      <c r="K65" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L65" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="J145" s="5">
+        <v>0</v>
+      </c>
+      <c r="K145" s="5">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66">
+      <c r="L145" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G146" s="11">
+        <v>43065</v>
+      </c>
+      <c r="H146" s="12"/>
+      <c r="I146" s="5">
+        <v>0</v>
+      </c>
+      <c r="J146" s="5">
+        <v>0</v>
+      </c>
+      <c r="K146" s="5">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="D66" s="2">
-        <v>43033</v>
-      </c>
-      <c r="G66" s="7">
-        <v>43034</v>
-      </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>0</v>
-      </c>
-      <c r="K66" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L66" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67">
+      <c r="L146" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G147" s="11">
+        <v>43066</v>
+      </c>
+      <c r="H147" s="12"/>
+      <c r="I147" s="5">
+        <v>0</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0</v>
+      </c>
+      <c r="K147" s="5">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="D67" s="2">
-        <v>43033</v>
-      </c>
-      <c r="G67" s="7">
-        <v>43035</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="6">
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0</v>
-      </c>
-      <c r="K67" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L67" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68" s="2">
-        <v>43033</v>
-      </c>
-      <c r="G68" s="7">
-        <v>43036</v>
-      </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="6">
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <v>0</v>
-      </c>
-      <c r="K68" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L68" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2">
-        <v>43033</v>
-      </c>
-      <c r="G69" s="7">
-        <v>43037</v>
-      </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="6">
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L69" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70" s="2">
-        <v>43033</v>
-      </c>
-      <c r="G70" s="7">
-        <v>43038</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0</v>
-      </c>
-      <c r="K70" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L70" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>20</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2">
-        <v>43033</v>
-      </c>
-      <c r="G71" s="7">
-        <v>43039</v>
-      </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="6">
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0</v>
-      </c>
-      <c r="K71" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L71" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>21</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72">
+      <c r="L147" s="5">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D72" s="2">
-        <v>43033</v>
-      </c>
-      <c r="G72" s="7">
-        <v>43040</v>
-      </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0</v>
-      </c>
-      <c r="K72" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L72" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73" s="2">
-        <v>43045</v>
-      </c>
-      <c r="G73" s="7">
-        <v>43041</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="6">
-        <v>0</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0</v>
-      </c>
-      <c r="K73" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L73" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-      <c r="D74" s="2">
+    </row>
+    <row r="148" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G148" s="11">
         <v>43067</v>
       </c>
-      <c r="G74" s="7">
-        <v>43042</v>
-      </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="6">
-        <v>0</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L74" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75">
+      <c r="H148" s="12"/>
+      <c r="I148" s="5">
+        <v>0</v>
+      </c>
+      <c r="J148" s="5">
+        <v>0</v>
+      </c>
+      <c r="K148" s="5">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="D75" s="2">
+      <c r="L148" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G149" s="11">
+        <v>43068</v>
+      </c>
+      <c r="H149" s="12"/>
+      <c r="I149" s="5">
+        <v>0</v>
+      </c>
+      <c r="J149" s="5">
+        <v>0</v>
+      </c>
+      <c r="K149" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L149" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G150" s="11">
         <v>43069</v>
       </c>
-      <c r="G75" s="7">
-        <v>43043</v>
-      </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="6">
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <v>0</v>
-      </c>
-      <c r="K75" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L75" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2">
+      <c r="H150" s="12"/>
+      <c r="I150" s="5">
+        <v>0</v>
+      </c>
+      <c r="J150" s="5">
+        <v>0</v>
+      </c>
+      <c r="K150" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L150" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G151" s="11">
+        <v>43070</v>
+      </c>
+      <c r="H151" s="12"/>
+      <c r="I151" s="5">
+        <v>0</v>
+      </c>
+      <c r="J151" s="5">
+        <v>0</v>
+      </c>
+      <c r="K151" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L151" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G152" s="11">
+        <v>43071</v>
+      </c>
+      <c r="H152" s="12"/>
+      <c r="I152" s="5">
+        <v>0</v>
+      </c>
+      <c r="J152" s="5">
+        <v>0</v>
+      </c>
+      <c r="K152" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L152" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G153" s="11">
         <v>43072</v>
       </c>
-      <c r="G76" s="7">
-        <v>43044</v>
-      </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="6">
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
-        <v>0</v>
-      </c>
-      <c r="K76" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L76" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G77" s="7">
-        <v>43045</v>
-      </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="6">
+      <c r="H153" s="12"/>
+      <c r="I153" s="5">
+        <v>0</v>
+      </c>
+      <c r="J153" s="5">
+        <v>0</v>
+      </c>
+      <c r="K153" s="5">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J77" s="6">
-        <v>0</v>
-      </c>
-      <c r="K77" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L77" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="7">
-        <v>43046</v>
-      </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="6">
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <v>0</v>
-      </c>
-      <c r="K78" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L78" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G79" s="7">
-        <v>43047</v>
-      </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="6">
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <v>0</v>
-      </c>
-      <c r="K79" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L79" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G80" s="7">
-        <v>43048</v>
-      </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="6">
-        <v>0</v>
-      </c>
-      <c r="J80" s="6">
-        <v>0</v>
-      </c>
-      <c r="K80" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L80" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G81" s="7">
-        <v>43049</v>
-      </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0</v>
-      </c>
-      <c r="K81" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L81" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="7">
-        <v>43050</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="6">
-        <v>0</v>
-      </c>
-      <c r="J82" s="6">
-        <v>0</v>
-      </c>
-      <c r="K82" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L82" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G83" s="7">
-        <v>43051</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="6">
-        <v>0</v>
-      </c>
-      <c r="J83" s="6">
-        <v>0</v>
-      </c>
-      <c r="K83" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L83" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G84" s="7">
-        <v>43052</v>
-      </c>
-      <c r="H84" s="7"/>
-      <c r="I84" s="6">
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L84" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G85" s="7">
-        <v>43053</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="6">
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <v>0</v>
-      </c>
-      <c r="K85" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L85" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G86" s="7">
-        <v>43054</v>
-      </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="6">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <v>0</v>
-      </c>
-      <c r="K86" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L86" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="7">
-        <v>43055</v>
-      </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="6">
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0</v>
-      </c>
-      <c r="K87" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L87" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G88" s="7">
-        <v>43056</v>
-      </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="6">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <v>0</v>
-      </c>
-      <c r="K88" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L88" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G89" s="7">
-        <v>43057</v>
-      </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="6">
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0</v>
-      </c>
-      <c r="K89" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L89" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="7">
-        <v>43058</v>
-      </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="6">
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0</v>
-      </c>
-      <c r="K90" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L90" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G91" s="7">
-        <v>43059</v>
-      </c>
-      <c r="H91" s="7"/>
-      <c r="I91" s="6">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0</v>
-      </c>
-      <c r="K91" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L91" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G92" s="7">
-        <v>43060</v>
-      </c>
-      <c r="H92" s="7"/>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <v>0</v>
-      </c>
-      <c r="K92" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L92" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G93" s="7">
-        <v>43061</v>
-      </c>
-      <c r="H93" s="7"/>
-      <c r="I93" s="6">
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <v>0</v>
-      </c>
-      <c r="K93" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L93" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G94" s="7">
-        <v>43062</v>
-      </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <v>0</v>
-      </c>
-      <c r="K94" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L94" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G95" s="7">
-        <v>43063</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L95" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="7:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G96" s="7">
-        <v>43064</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <v>0</v>
-      </c>
-      <c r="K96" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L96" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="7">
-        <v>43065</v>
-      </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="6">
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
-        <v>0</v>
-      </c>
-      <c r="K97" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L97" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G98" s="7">
-        <v>43066</v>
-      </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <v>0</v>
-      </c>
-      <c r="K98" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L98" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G99" s="7">
-        <v>43067</v>
-      </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="6">
+      <c r="L153" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G154" s="11">
+        <v>43073</v>
+      </c>
+      <c r="H154" s="12"/>
+      <c r="I154" s="5">
+        <v>0</v>
+      </c>
+      <c r="J154" s="5">
+        <v>0</v>
+      </c>
+      <c r="K154" s="5">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J99" s="6">
-        <v>0</v>
-      </c>
-      <c r="K99" s="24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L99" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G100" s="7">
-        <v>43068</v>
-      </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="6">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0</v>
-      </c>
-      <c r="K100" s="24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L100" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G101" s="7">
-        <v>43069</v>
-      </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="6">
+      <c r="L154" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G155" s="11">
+        <v>43074</v>
+      </c>
+      <c r="H155" s="12"/>
+      <c r="I155" s="5">
+        <v>0</v>
+      </c>
+      <c r="J155" s="5">
+        <v>0</v>
+      </c>
+      <c r="K155" s="5">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J101" s="6">
-        <v>0</v>
-      </c>
-      <c r="K101" s="24">
-        <f t="shared" si="2"/>
+      <c r="L155" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G156" s="11">
+        <v>43075</v>
+      </c>
+      <c r="H156" s="12"/>
+      <c r="I156" s="5">
+        <v>0</v>
+      </c>
+      <c r="J156" s="5">
+        <v>0</v>
+      </c>
+      <c r="K156" s="5">
+        <f t="shared" ref="K156:K163" si="13">K155-I156</f>
         <v>1</v>
       </c>
-      <c r="L101" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G102" s="7">
-        <v>43070</v>
-      </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0</v>
-      </c>
-      <c r="K102" s="24">
-        <f t="shared" si="2"/>
+      <c r="L156" s="5">
+        <f t="shared" ref="L156:L163" si="14">L155-J156</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G157" s="11">
+        <v>43076</v>
+      </c>
+      <c r="H157" s="12"/>
+      <c r="I157" s="5">
+        <v>0</v>
+      </c>
+      <c r="J157" s="5">
+        <v>0</v>
+      </c>
+      <c r="K157" s="5">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L102" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G103" s="7">
-        <v>43071</v>
-      </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="6">
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
-        <v>0</v>
-      </c>
-      <c r="K103" s="24">
-        <f t="shared" si="2"/>
+      <c r="L157" s="5">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G158" s="11">
+        <v>43077</v>
+      </c>
+      <c r="H158" s="12"/>
+      <c r="I158" s="5">
+        <v>0</v>
+      </c>
+      <c r="J158" s="5">
+        <v>0</v>
+      </c>
+      <c r="K158" s="5">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L103" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G104" s="7">
-        <v>43072</v>
-      </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="6">
+      <c r="L158" s="5">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G159" s="11">
+        <v>43078</v>
+      </c>
+      <c r="H159" s="12"/>
+      <c r="I159" s="5">
+        <v>0</v>
+      </c>
+      <c r="J159" s="5">
+        <v>0</v>
+      </c>
+      <c r="K159" s="5">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J104" s="6">
-        <v>0</v>
-      </c>
-      <c r="K104" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L104" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="L159" s="5">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G160" s="11">
+        <v>43079</v>
+      </c>
+      <c r="H160" s="12"/>
+      <c r="I160" s="5">
+        <v>0</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0</v>
+      </c>
+      <c r="K160" s="5">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="G109" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L109" s="29"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="L160" s="5">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G161" s="11">
+        <v>43080</v>
+      </c>
+      <c r="H161" s="12"/>
+      <c r="I161" s="5">
+        <v>0</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0</v>
+      </c>
+      <c r="K161" s="5">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="B110" t="s">
-        <v>71</v>
-      </c>
-      <c r="C110">
+      <c r="L161" s="5">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G162" s="11">
+        <v>43081</v>
+      </c>
+      <c r="H162" s="12"/>
+      <c r="I162" s="5">
+        <v>0</v>
+      </c>
+      <c r="J162" s="5">
+        <v>0</v>
+      </c>
+      <c r="K162" s="5">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D110" s="2">
-        <v>43049</v>
-      </c>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J110" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K110" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L110" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>2</v>
-      </c>
-      <c r="B111" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111" s="2">
-        <v>43052</v>
-      </c>
-      <c r="G111" s="27">
-        <v>43048</v>
-      </c>
-      <c r="H111" s="26"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6">
+      <c r="L162" s="5">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="L111" s="6">
+    </row>
+    <row r="163" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G163" s="11">
+        <v>43082</v>
+      </c>
+      <c r="H163" s="12"/>
+      <c r="I163" s="5">
+        <v>1</v>
+      </c>
+      <c r="J163" s="5">
+        <v>0</v>
+      </c>
+      <c r="K163" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L163" s="5">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>3</v>
-      </c>
-      <c r="B112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112" s="2">
-        <v>43055</v>
-      </c>
-      <c r="G112" s="7">
-        <v>43049</v>
-      </c>
-      <c r="H112" s="13"/>
-      <c r="I112" s="6">
-        <v>1</v>
-      </c>
-      <c r="J112" s="6">
-        <v>0</v>
-      </c>
-      <c r="K112" s="6">
-        <f>K111-I112</f>
-        <v>7</v>
-      </c>
-      <c r="L112" s="6">
-        <f>L111-J112</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>4</v>
-      </c>
-      <c r="B113" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113" s="2">
-        <v>43057</v>
-      </c>
-      <c r="G113" s="7">
-        <v>43050</v>
-      </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="6">
-        <v>0</v>
-      </c>
-      <c r="J113" s="6">
-        <v>0</v>
-      </c>
-      <c r="K113" s="6">
-        <f>K112-I113</f>
-        <v>7</v>
-      </c>
-      <c r="L113" s="6">
-        <f>L112-J113</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>5</v>
-      </c>
-      <c r="B114" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114">
-        <v>4</v>
-      </c>
-      <c r="D114" s="2">
-        <v>43059</v>
-      </c>
-      <c r="G114" s="7">
-        <v>43051</v>
-      </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="6">
-        <v>0</v>
-      </c>
-      <c r="J114" s="6">
-        <v>0</v>
-      </c>
-      <c r="K114" s="6">
-        <f t="shared" ref="K114:K137" si="4">K113-I114</f>
-        <v>7</v>
-      </c>
-      <c r="L114" s="6">
-        <f t="shared" ref="L114:L137" si="5">L113-J114</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>6</v>
-      </c>
-      <c r="B115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115" s="2">
-        <v>43063</v>
-      </c>
-      <c r="G115" s="7">
-        <v>43052</v>
-      </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="6">
-        <v>1</v>
-      </c>
-      <c r="J115" s="6">
-        <v>0</v>
-      </c>
-      <c r="K115" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L115" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>7</v>
-      </c>
-      <c r="B116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116" s="2">
-        <v>43068</v>
-      </c>
-      <c r="G116" s="7">
-        <v>43053</v>
-      </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="6">
-        <v>0</v>
-      </c>
-      <c r="J116" s="6">
-        <v>0</v>
-      </c>
-      <c r="K116" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L116" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>8</v>
-      </c>
-      <c r="B117" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117">
-        <v>6</v>
-      </c>
-      <c r="D117" s="2">
-        <v>43074</v>
-      </c>
-      <c r="G117" s="7">
-        <v>43054</v>
-      </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="6">
-        <v>0</v>
-      </c>
-      <c r="J117" s="6">
-        <v>0</v>
-      </c>
-      <c r="K117" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L117" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G118" s="7">
-        <v>43055</v>
-      </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="6">
-        <v>1</v>
-      </c>
-      <c r="J118" s="6">
-        <v>0</v>
-      </c>
-      <c r="K118" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L118" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G119" s="7">
-        <v>43056</v>
-      </c>
-      <c r="H119" s="13"/>
-      <c r="I119" s="6">
-        <v>0</v>
-      </c>
-      <c r="J119" s="6">
-        <v>0</v>
-      </c>
-      <c r="K119" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L119" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G120" s="7">
-        <v>43057</v>
-      </c>
-      <c r="H120" s="13"/>
-      <c r="I120" s="6">
-        <v>1</v>
-      </c>
-      <c r="J120" s="6">
-        <v>0</v>
-      </c>
-      <c r="K120" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L120" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G121" s="7">
-        <v>43058</v>
-      </c>
-      <c r="H121" s="13"/>
-      <c r="I121" s="6">
-        <v>0</v>
-      </c>
-      <c r="J121" s="6">
-        <v>0</v>
-      </c>
-      <c r="K121" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L121" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G122" s="7">
-        <v>43059</v>
-      </c>
-      <c r="H122" s="13"/>
-      <c r="I122" s="6">
-        <v>1</v>
-      </c>
-      <c r="J122" s="6">
-        <v>0</v>
-      </c>
-      <c r="K122" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L122" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G123" s="7">
-        <v>43060</v>
-      </c>
-      <c r="H123" s="13"/>
-      <c r="I123" s="6">
-        <v>0</v>
-      </c>
-      <c r="J123" s="6">
-        <v>0</v>
-      </c>
-      <c r="K123" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L123" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G124" s="7">
-        <v>43061</v>
-      </c>
-      <c r="H124" s="13"/>
-      <c r="I124" s="6">
-        <v>0</v>
-      </c>
-      <c r="J124" s="6">
-        <v>0</v>
-      </c>
-      <c r="K124" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L124" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G125" s="7">
-        <v>43062</v>
-      </c>
-      <c r="H125" s="13"/>
-      <c r="I125" s="6">
-        <v>0</v>
-      </c>
-      <c r="J125" s="6">
-        <v>0</v>
-      </c>
-      <c r="K125" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L125" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G126" s="7">
-        <v>43063</v>
-      </c>
-      <c r="H126" s="13"/>
-      <c r="I126" s="6">
-        <v>1</v>
-      </c>
-      <c r="J126" s="6">
-        <v>0</v>
-      </c>
-      <c r="K126" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L126" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G127" s="7">
-        <v>43064</v>
-      </c>
-      <c r="H127" s="13"/>
-      <c r="I127" s="6">
-        <v>0</v>
-      </c>
-      <c r="J127" s="6">
-        <v>0</v>
-      </c>
-      <c r="K127" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L127" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G128" s="7">
-        <v>43065</v>
-      </c>
-      <c r="H128" s="13"/>
-      <c r="I128" s="6">
-        <v>0</v>
-      </c>
-      <c r="J128" s="6">
-        <v>0</v>
-      </c>
-      <c r="K128" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L128" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G129" s="7">
-        <v>43066</v>
-      </c>
-      <c r="H129" s="13"/>
-      <c r="I129" s="6">
-        <v>0</v>
-      </c>
-      <c r="J129" s="6">
-        <v>0</v>
-      </c>
-      <c r="K129" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L129" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G130" s="7">
-        <v>43067</v>
-      </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="6">
-        <v>0</v>
-      </c>
-      <c r="J130" s="6">
-        <v>0</v>
-      </c>
-      <c r="K130" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L130" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G131" s="7">
-        <v>43068</v>
-      </c>
-      <c r="H131" s="13"/>
-      <c r="I131" s="6">
-        <v>1</v>
-      </c>
-      <c r="J131" s="6">
-        <v>0</v>
-      </c>
-      <c r="K131" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L131" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G132" s="7">
-        <v>43069</v>
-      </c>
-      <c r="H132" s="13"/>
-      <c r="I132" s="6">
-        <v>0</v>
-      </c>
-      <c r="J132" s="6">
-        <v>0</v>
-      </c>
-      <c r="K132" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L132" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G133" s="7">
-        <v>43070</v>
-      </c>
-      <c r="H133" s="13"/>
-      <c r="I133" s="6">
-        <v>0</v>
-      </c>
-      <c r="J133" s="6">
-        <v>0</v>
-      </c>
-      <c r="K133" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L133" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G134" s="7">
-        <v>43071</v>
-      </c>
-      <c r="H134" s="13"/>
-      <c r="I134" s="6">
-        <v>0</v>
-      </c>
-      <c r="J134" s="6">
-        <v>0</v>
-      </c>
-      <c r="K134" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L134" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G135" s="7">
-        <v>43072</v>
-      </c>
-      <c r="H135" s="13"/>
-      <c r="I135" s="6">
-        <v>0</v>
-      </c>
-      <c r="J135" s="6">
-        <v>0</v>
-      </c>
-      <c r="K135" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L135" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G136" s="7">
-        <v>43073</v>
-      </c>
-      <c r="H136" s="13"/>
-      <c r="I136" s="6">
-        <v>0</v>
-      </c>
-      <c r="J136" s="6">
-        <v>0</v>
-      </c>
-      <c r="K136" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L136" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G137" s="7">
-        <v>43074</v>
-      </c>
-      <c r="H137" s="13"/>
-      <c r="I137" s="6">
-        <v>1</v>
-      </c>
-      <c r="J137" s="6">
-        <v>0</v>
-      </c>
-      <c r="K137" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L137" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="G109:H110"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="G56:H56"/>
+  <mergeCells count="144">
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
     <mergeCell ref="G102:H102"/>
     <mergeCell ref="G103:H103"/>
     <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G49:H50"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
     <mergeCell ref="G87:H87"/>
     <mergeCell ref="G88:H88"/>
     <mergeCell ref="G79:H79"/>
@@ -8242,63 +9709,62 @@
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="G127:H128"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Gestion de Projet/Burndown Chart.xlsx
+++ b/Gestion de Projet/Burndown Chart.xlsx
@@ -441,21 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,6 +472,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6224,8 +6224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ144" sqref="AJ144"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6256,30 +6256,30 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
@@ -6294,10 +6294,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="27">
+      <c r="G7" s="22">
         <v>43044</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5">
         <v>0</v>
@@ -6350,12 +6350,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="G10" s="11">
         <v>43047</v>
       </c>
@@ -7286,22 +7286,22 @@
       </c>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="18" t="s">
+      <c r="H49" s="15"/>
+      <c r="I49" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18" t="s">
+      <c r="J49" s="13"/>
+      <c r="K49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L49" s="18"/>
+      <c r="L49" s="13"/>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="8" t="s">
         <v>28</v>
       </c>
@@ -8774,22 +8774,22 @@
       </c>
     </row>
     <row r="127" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G127" s="16" t="s">
+      <c r="G127" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H127" s="16"/>
-      <c r="I127" s="17" t="s">
+      <c r="H127" s="25"/>
+      <c r="I127" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17" t="s">
+      <c r="J127" s="26"/>
+      <c r="K127" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L127" s="17"/>
+      <c r="L127" s="26"/>
     </row>
     <row r="128" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
       <c r="I128" s="10" t="s">
         <v>28</v>
       </c>
@@ -8804,10 +8804,10 @@
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G129" s="13">
+      <c r="G129" s="27">
         <v>43048</v>
       </c>
-      <c r="H129" s="14"/>
+      <c r="H129" s="28"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5">
@@ -8818,12 +8818,12 @@
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
       <c r="G130" s="11">
         <v>43049</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>7</v>
       </c>
       <c r="L132" s="5">
-        <f t="shared" ref="L132:L158" si="12">L131-J132</f>
+        <f t="shared" ref="L132:L155" si="12">L131-J132</f>
         <v>8</v>
       </c>
     </row>
@@ -9613,47 +9613,61 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="G127:H128"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="G10:H10"/>
@@ -9677,6 +9691,33 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G61:H61"/>
@@ -9692,71 +9733,30 @@
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="G72:H72"/>
     <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
     <mergeCell ref="G132:H132"/>
     <mergeCell ref="G133:H133"/>
     <mergeCell ref="G134:H134"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="G127:H128"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
     <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G129:H129"/>
     <mergeCell ref="G150:H150"/>
     <mergeCell ref="G151:H151"/>
     <mergeCell ref="G152:H152"/>
     <mergeCell ref="G153:H153"/>
     <mergeCell ref="G154:H154"/>
     <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Gestion de Projet/Burndown Chart.xlsx
+++ b/Gestion de Projet/Burndown Chart.xlsx
@@ -474,14 +474,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2327,163 +2327,163 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6224,8 +6224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7458,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="9">
         <f t="shared" si="5"/>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="L58" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.25">
@@ -7478,7 +7478,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K59" s="9">
         <f t="shared" si="5"/>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="L59" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.25">
@@ -7498,7 +7498,7 @@
         <v>7</v>
       </c>
       <c r="J60" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K60" s="9">
         <f t="shared" si="5"/>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="L60" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.25">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" s="9">
         <f t="shared" si="5"/>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="L61" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.25">
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="9">
         <f t="shared" si="5"/>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="L62" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.25">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="L63" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.25">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="L64" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="L65" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="L66" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="L67" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="L68" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="L69" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="L70" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="L71" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="L72" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="L73" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="L74" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="L75" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="L76" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="L77" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="L78" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="L79" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="L80" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="L81" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="L82" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="L83" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="L84" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="L85" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="L86" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="L87" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="L88" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="L89" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="L90" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="L91" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="L92" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="L93" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="L94" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="L95" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="L96" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.25">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="L97" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.25">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="L98" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.25">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="L99" s="9">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.25">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="L100" s="9">
         <f t="shared" ref="L100:L104" si="8">L99-J100</f>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.25">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="L101" s="9">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.25">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="L102" s="9">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.25">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="L103" s="9">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="7:12" x14ac:dyDescent="0.25">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="L104" s="9">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="7:12" x14ac:dyDescent="0.25">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="L105" s="9">
         <f t="shared" ref="L105:L110" si="10">L104-J105</f>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="7:12" x14ac:dyDescent="0.25">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="L106" s="9">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.25">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="L107" s="9">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.25">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="L108" s="9">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="7:12" x14ac:dyDescent="0.25">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="L109" s="9">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="7:12" x14ac:dyDescent="0.25">
@@ -8770,26 +8770,26 @@
       </c>
       <c r="L110" s="9">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G127" s="25" t="s">
+      <c r="G127" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H127" s="25"/>
-      <c r="I127" s="26" t="s">
+      <c r="H127" s="26"/>
+      <c r="I127" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26" t="s">
+      <c r="J127" s="24"/>
+      <c r="K127" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L127" s="26"/>
+      <c r="L127" s="24"/>
     </row>
     <row r="128" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
       <c r="I128" s="10" t="s">
         <v>28</v>
       </c>
@@ -8818,12 +8818,12 @@
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
       <c r="G130" s="11">
         <v>43049</v>
       </c>
@@ -9613,6 +9613,16 @@
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="G127:H128"/>
+    <mergeCell ref="G129:H129"/>
     <mergeCell ref="G135:H135"/>
     <mergeCell ref="G136:H136"/>
     <mergeCell ref="G137:H137"/>
@@ -9622,15 +9632,6 @@
     <mergeCell ref="G131:H131"/>
     <mergeCell ref="G146:H146"/>
     <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="G127:H128"/>
     <mergeCell ref="I127:J127"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="G51:H51"/>
@@ -9650,13 +9651,11 @@
     <mergeCell ref="G84:H84"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G129:H129"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G87:H87"/>
     <mergeCell ref="G88:H88"/>
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="G80:H80"/>
@@ -9733,6 +9732,7 @@
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="G72:H72"/>
     <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G87:H87"/>
     <mergeCell ref="G156:H156"/>
     <mergeCell ref="G157:H157"/>
     <mergeCell ref="G158:H158"/>
